--- a/biology/Zoologie/Habrophallos_collaris/Habrophallos_collaris.xlsx
+++ b/biology/Zoologie/Habrophallos_collaris/Habrophallos_collaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habrophallos collaris est une espèce de serpents de la famille des Leptotyphlopidae[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habrophallos collaris est une espèce de serpents de la famille des Leptotyphlopidae,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Guyane et au Suriname. On la trouve du niveau de la mer jusqu'à 450 m d'altitude. Elle vit dans la forêt tropicale humide de basse altitude[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Guyane et au Suriname. On la trouve du niveau de la mer jusqu'à 450 m d'altitude. Elle vit dans la forêt tropicale humide de basse altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[4] Hoogmoed indique que le plus grand spécimen en sa possession mesure 104 mm dont environ 7 mm pour la queue. Ce serpent a un corps cylindrique. Son dos est noir avec des reflets bleu verdâtre. Sa nuque présente deux taches claires amorçant un motif en collier.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Hoogmoed indique que le plus grand spécimen en sa possession mesure 104 mm dont environ 7 mm pour la queue. Ce serpent a un corps cylindrique. Son dos est noir avec des reflets bleu verdâtre. Sa nuque présente deux taches claires amorçant un motif en collier.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, du latin collaris, « collier », fait référence à sa livrée.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hoogmoed, 1977 : Notes on the herpetofauna of Surinam V. On a new species of Leptotyphlops from Surinam, with notes on the other Surinam species of the genus (Leptotyphlopidae, Serpentes). Zoologische Mededelingen, vol. 51, n. 7, p. 99-123 (texte intégral).</t>
         </is>
